--- a/medicine/Psychotrope/Verband_Deutscher_Prädikatsweingüter/Verband_Deutscher_Prädikatsweingüter.xlsx
+++ b/medicine/Psychotrope/Verband_Deutscher_Prädikatsweingüter/Verband_Deutscher_Prädikatsweingüter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Verband_Deutscher_Pr%C3%A4dikatsweing%C3%BCter</t>
+          <t>Verband_Deutscher_Prädikatsweingüter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Verband Deutscher Prädikats- und Qualitätsweingüter (en allemand : Association allemande des domaines viticoles avec distinction et/ou appellation - abrégée en VDP) est une association d'environ 200 des meilleurs établissements vinicoles en Allemagne qui s'investit dans des normes de qualité obligatoires et également (depuis 1990) dans la gestion écologique des établissements vinicoles de ses membres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Verband Deutscher Prädikats- und Qualitätsweingüter (en allemand : Association allemande des domaines viticoles avec distinction et/ou appellation - abrégée en VDP) est une association d'environ 200 des meilleurs établissements vinicoles en Allemagne qui s'investit dans des normes de qualité obligatoires et également (depuis 1990) dans la gestion écologique des établissements vinicoles de ses membres.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Verband_Deutscher_Pr%C3%A4dikatsweing%C3%BCter</t>
+          <t>Verband_Deutscher_Prädikatsweingüter</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Établissements viticoles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des membres de l'association  (en 2013) :
 </t>
